--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="932">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="932">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31519,28 +31519,28 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>90</v>
@@ -31549,22 +31549,22 @@
         <v>90</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>90</v>
@@ -31576,31 +31576,31 @@
         <v>90</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="AB7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>90</v>
@@ -31609,25 +31609,25 @@
         <v>90</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8">
@@ -31867,7 +31867,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>90</v>
@@ -31879,7 +31879,7 @@
         <v>90</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>90</v>
@@ -31888,34 +31888,34 @@
         <v>90</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>90</v>
@@ -31924,7 +31924,7 @@
         <v>90</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>90</v>
@@ -31933,7 +31933,7 @@
         <v>90</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>90</v>
@@ -31948,10 +31948,10 @@
         <v>90</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>90</v>
@@ -31960,13 +31960,13 @@
         <v>90</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>90</v>
@@ -33955,115 +33955,115 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="AL28" s="5" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="29">
@@ -35231,115 +35231,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40">
@@ -35347,115 +35347,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35463,115 +35463,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>112</v>
+        <v>385</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>112</v>
+        <v>418</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>112</v>
+        <v>433</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>112</v>
+        <v>482</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>112</v>
+        <v>508</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>112</v>
+        <v>563</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>112</v>
+        <v>592</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>112</v>
+        <v>606</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>112</v>
+        <v>632</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>112</v>
+        <v>645</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>112</v>
+        <v>668</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>112</v>
+        <v>700</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>112</v>
+        <v>726</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>112</v>
+        <v>750</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>112</v>
+        <v>779</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>112</v>
+        <v>810</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>112</v>
+        <v>838</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>112</v>
+        <v>865</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>112</v>
+        <v>893</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>112</v>
+        <v>921</v>
       </c>
     </row>
     <row r="42">
